--- a/data/trans_bre/P48_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P48_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1159,5%</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>366,26%</t>
+          <t>421,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-16,89%</t>
+          <t>257,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>74,44%</t>
+          <t>88,85%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>82,56%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>138,19%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,87</t>
+          <t>0,31; 9,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 8,17</t>
+          <t>-0,12; 12,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 2,7</t>
+          <t>-1,27; 4,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,8</t>
+          <t>-0,53; 3,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-1,1; 8,39</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>16,28; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-84,59; 190,23</t>
+          <t>-45,18; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,62; 360,64</t>
+          <t>-44,89; 484,45</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-27,55; 392,38</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-45,92; 927,95</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>39,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>13,66%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10,4%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,43%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 9,07</t>
+          <t>-0,44; 12,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 7,08</t>
+          <t>-4,77; 8,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 5,28</t>
+          <t>-2,94; 5,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 4,94</t>
+          <t>-2,94; 4,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,57; 106,5</t>
+          <t>-5,71; 7,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 55,66</t>
+          <t>-3,06; 114,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 66,43</t>
+          <t>-22,62; 63,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 66,1</t>
+          <t>-24,05; 65,43</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-24,18; 58,15</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-25,84; 47,5</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,61</t>
+          <t>-7,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>-6,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-14,1</t>
+          <t>-15,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,42</t>
+          <t>-14,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,38%</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,99%</t>
+          <t>-9,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-15,85%</t>
+          <t>-9,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-16,18%</t>
+          <t>-17,51%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-16,09%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-6,42%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,49; -2,76</t>
+          <t>-15,68; 0,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 2,75</t>
+          <t>-16,04; 1,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,31; -9,01</t>
+          <t>-21,2; -10,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,45; -8,8</t>
+          <t>-19,45; -9,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,1; -3,51</t>
+          <t>-11,89; 3,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 3,86</t>
+          <t>-17,86; 0,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-21,44; -10,48</t>
+          <t>-19,64; 2,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,11; -10,22</t>
+          <t>-22,92; -12,27</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-21,4; -10,83</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-13,91; 4,38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,78%</t>
+          <t>-11,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-12,36%</t>
+          <t>-19,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-10,36%</t>
+          <t>-18,24%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-0,44%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 2,65</t>
+          <t>-7,68; 1,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 3,62</t>
+          <t>-12,77; 0,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,67; -0,57</t>
+          <t>-13,16; 2,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 0,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 9,46</t>
+          <t>-8,03; 7,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 12,76</t>
+          <t>-25,88; 4,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,56; -1,78</t>
+          <t>-37,83; 3,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 1,58</t>
+          <t>-39,44; 9,53</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-20,74; 25,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,12</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-3,87</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-3,47</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-3,18%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-6,52%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-11,6%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-10,33%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-4,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 2,74</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; 2,27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-7,37; -0,5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-7,14; 0,11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 3,05</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-13,98; 9,68</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-18,53; 7,48</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-20,62; -1,44</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-19,99; 0,27</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-15,57; 8,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P48_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P48_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,229 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,35</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,16</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,49</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>421,49%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>257,37%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>88,85%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>82,56%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>138,19%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.35412627260056</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.800209841216342</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.702001979243691</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.556450645753593</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>3.803605970053322</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>4.214912509724408</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2.269216858579806</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.8210566045201589</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.7925778534507788</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.42282969972616</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 9,28</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 12,46</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 4,57</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,53; 3,97</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 8,39</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-45,18; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-44,89; 484,45</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-27,55; 392,38</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-45,92; 927,95</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.3144002461717949</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.5115222448011774</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.354542841432531</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.617085119831565</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.8909692430152737</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.5288612025882865</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4609927004047658</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2829964819513923</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.4725811715352977</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.282942984414724</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.07814520169169</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.351759563428852</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.817736898906157</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>10.60368551880509</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>4.706546244397994</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>3.953254911657903</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>10.64440715138216</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,67</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>39,98%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>10,28%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>13,66%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>10,4%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 12,55</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,77; 8,8</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 5,33</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 4,39</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-5,71; 7,07</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-3,06; 114,36</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-22,62; 63,94</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-24,05; 65,43</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-24,18; 58,15</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-25,84; 47,5</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.670240507732776</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.380878645468675</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.761715012059019</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.187333901680053</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.937371146389282</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3998184566740937</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.07850523142595825</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.182591784075513</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1266952500936914</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.05158510479205833</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-7,86</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-6,86</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-15,86</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-14,34</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-5,3</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-9,36%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-9,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-17,51%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-16,09%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-6,42%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.4419190115290179</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.919714675372746</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.374997556482186</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.506093414351072</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-5.245148542469011</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.03058730313068808</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2377883747171398</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.203816310069819</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.22247069825654</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2379021198825303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,68; 0,59</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,04; 1,93</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-21,2; -10,7</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-19,45; -9,18</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-11,89; 3,41</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-17,86; 0,74</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-19,64; 2,75</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-22,92; -12,27</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-21,4; -10,83</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-13,91; 4,38</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.55111632706302</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.514568352078863</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.480835709462351</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.567783943083124</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>7.531426879244703</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.143603865555844</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.6286035399887265</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.7175094068547697</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.6297125361449695</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.5053603866178922</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +873,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-3,18</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-5,85</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-5,12</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-11,99%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-19,66%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-18,24%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-0,44%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-7.860331926148911</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-6.924314894960537</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-15.83327212477696</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-14.47078669660934</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-5.088385672402707</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.09362092231034974</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.09091555592566176</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1752548143653073</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.1625475989143564</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.06173211642633741</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,68; 1,06</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,77; 0,8</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-13,16; 2,02</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-8,03; 7,75</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-25,88; 4,4</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-37,83; 3,48</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-39,44; 9,53</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-20,74; 25,25</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.67652099281388</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-15.88859618464766</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-21.43329885097682</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-19.57262078900097</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-11.85250630969595</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1786063168734076</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1961568846899405</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2327105603115865</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.215084145243296</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.1372634051184748</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.591264598532308</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.650322955286387</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-10.41373842574378</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-9.305710626130653</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>3.689055449342099</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.007400100037081326</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.03627121558125936</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.1196589069167681</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.108436057029599</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.04689070583447239</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,12</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,87</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,47</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,67</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-3,18%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-6,52%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-11,6%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-10,33%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-4,48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,54; 2,74</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,55; 2,27</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,37; -0,5</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,14; 0,11</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-6,16; 3,05</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-13,98; 9,68</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-18,53; 7,48</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-20,62; -1,44</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-19,99; 0,27</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-15,57; 8,74</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.431106710730329</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.9850386554931423</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-3.656467874628172</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-3.320974623465816</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-2.075594969971628</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.03977483329203652</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.02794720763764615</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1058990185423992</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1002432582411604</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.05467455006352701</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.616088162812455</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.054027493118041</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-7.694938030486982</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-6.98204481902417</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-7.535225538843743</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1152396659843692</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1795505806762767</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2076262755980948</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1982286840792722</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1809046265505873</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.793869780860831</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.037164617946723</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.7881777137697623</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.2055148809575436</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.642979875691895</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.2066425919972937</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1612731226936926</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.02316846638846319</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.006203662307082765</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.1039788317985389</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
